--- a/焦煤/eta/焦煤港口库存_合并数据.xlsx
+++ b/焦煤/eta/焦煤港口库存_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>309.3</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>314.2</v>
+        <v>315.7</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>320.7</v>
+        <v>324.6</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>322.2</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>311.6</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>308.7</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>318.9</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>320.2</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>322.2</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>319.8</v>
+        <v>326.3</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>324.6</v>
+        <v>329.1</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>321.8</v>
+        <v>327.6</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>321.6</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>317.4</v>
+        <v>317.1</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>314.8</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>300.7</v>
+        <v>300.6</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>300.5</v>
+        <v>301.3</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>301.4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>298.1</v>
+        <v>299.1</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>292.9</v>
+        <v>294.5</v>
       </c>
     </row>
     <row r="22">
